--- a/testData/orderCommodityAction.xlsx
+++ b/testData/orderCommodityAction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="二合一商品" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -56,7 +56,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2020-06-21 07:01:24</t>
+    <t>2020-06-22 15:01:48</t>
   </si>
   <si>
     <t>pass</t>
@@ -68,10 +68,10 @@
     <t>visit_url</t>
   </si>
   <si>
-    <t>https://u.jd.com/OQwo2t</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:01:33</t>
+    <t>https://u.jd.com/A82ZKV</t>
+  </si>
+  <si>
+    <t>2020-06-22 14:59:41</t>
   </si>
   <si>
     <t>最大化窗口</t>
@@ -80,7 +80,7 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2020-06-21 07:01:37</t>
+    <t>2020-06-22 14:59:45</t>
   </si>
   <si>
     <t>等待主页加载</t>
@@ -89,7 +89,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2020-06-21 07:01:40</t>
+    <t>2020-06-22 14:59:48</t>
   </si>
   <si>
     <t>设置登录cookies</t>
@@ -98,6 +98,9 @@
     <t>setCookie</t>
   </si>
   <si>
+    <t>2020-06-22 14:59:49</t>
+  </si>
+  <si>
     <t>点击一键领取</t>
   </si>
   <si>
@@ -110,35 +113,77 @@
     <t>//*[@id="app"]//div[@class="btn-area"]/div</t>
   </si>
   <si>
-    <t>2020-06-21 07:01:41</t>
+    <t>2020-06-22 14:59:50</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>点击立即购买</t>
-  </si>
-  <si>
-    <t>//*[@id="btn-reservation"]</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:30:54</t>
+    <t>点击加入购物车</t>
+  </si>
+  <si>
+    <t>//*[@id="InitCartUrl"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:00:08</t>
+  </si>
+  <si>
+    <t>等待2秒</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:00:11</t>
+  </si>
+  <si>
+    <t>点击去购物车结算</t>
+  </si>
+  <si>
+    <t>//*[@id="GotoShoppingCart"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:00:12</t>
+  </si>
+  <si>
+    <t>点击去结算</t>
+  </si>
+  <si>
+    <t>//*[@id="cart-floatbar"]//a[@class="submit-btn"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:00:27</t>
+  </si>
+  <si>
+    <t>点击提交订单</t>
+  </si>
+  <si>
+    <t>//*[@id="order-submit"]</t>
+  </si>
+  <si>
+    <t>获取订单号</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>//*[@id="indexBlurId"]//span[contains(.,"订单号")]</t>
+  </si>
+  <si>
+    <t>2020-06-22 14:56:45</t>
   </si>
   <si>
     <t>faild</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\John\work\airtestLearning\webtest\testScripts\ExecuteTest.py", line 55, in executeExcel
+  File "D:\John\work\airtestLearning\webtest\testScripts\ExecuteTest.py", line 54, in executeExcel
     returnValue = eval(expressionStr)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 73, in click
+  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 81, in getText
     raise err
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 71, in click
-    getElement(driver, locationType, locatorExpression).click()
-  File "D:\John\work\airtestLearning\webtest\util\ObjectMap.py", line 20, in getElement
+  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 79, in getText
+    return getElement(driver,locationType,locatorExpression).text
+  File "D:\John\work\airtestLearning\webtest\util\ObjectMap.py", line 26, in getElement
     raise e
-  File "D:\John\work\airtestLearning\webtest\util\ObjectMap.py", line 14, in getElement
+  File "D:\John\work\airtestLearning\webtest\util\ObjectMap.py", line 19, in getElement
     (lambda x: x.find_element(by=locationType, value = locatorExpression))
   File "C:\Python\Python36\lib\site-packages\selenium\webdriver\support\wait.py", line 80, in until
     raise TimeoutException(message, screen, stacktrace)
@@ -146,159 +191,85 @@
 </t>
   </si>
   <si>
-    <t>D:\John\work\airtestLearning\webtest\exceptionpictures\2020-6-19\19-30-54-320906.png</t>
-  </si>
-  <si>
-    <t>等待2秒</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:30:56</t>
+    <t>D:\John\work\airtestLearning\webtest\exceptionpictures\2020-6-22\14-56-44-641073.png</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:47</t>
+  </si>
+  <si>
+    <t>打开m主页</t>
+  </si>
+  <si>
+    <t>https://m.jd.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:51</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/I734wP</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:56</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:01</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:04</t>
+  </si>
+  <si>
+    <t>点击直接访问蒙层</t>
+  </si>
+  <si>
+    <t>//*[@id="pcprompt-viewpc"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:05</t>
+  </si>
+  <si>
+    <t>等待3秒</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:08</t>
+  </si>
+  <si>
+    <t>点击我要参团</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[text()="我要参团"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:09</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:11</t>
+  </si>
+  <si>
+    <t>判断并选择点击</t>
+  </si>
+  <si>
+    <t>//*[@id="sku-pannel"]//div[@class="sku_panel__confirm"]</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:16</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:17</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:20</t>
   </si>
   <si>
     <t>点击提交按钮</t>
   </si>
   <si>
-    <t>//*[@id="order-submit"]</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:30:57</t>
-  </si>
-  <si>
-    <t>获取订单号</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>//*[@id="indexBlurId"]//span[contains(.,"订单号")]</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:31:00</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:13</t>
-  </si>
-  <si>
-    <t>打开m主页</t>
-  </si>
-  <si>
-    <t>https://m.jd.com</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:08</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/I734wP</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:15</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:19</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:22</t>
-  </si>
-  <si>
-    <t>点击直接访问蒙层</t>
-  </si>
-  <si>
-    <t>//*[@id="pcprompt-viewpc"]</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\John\work\airtestLearning\webtest\testScripts\ExecuteTest.py", line 55, in executeExcel
-    returnValue = eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 73, in click
-    raise err
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 71, in click
-    getElement(driver, locationType, locatorExpression).click()
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 501, in _execute
-    return self._parent.execute(command, params)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webdriver.py", line 311, in execute
-    self.error_handler.check_response(response)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\errorhandler.py", line 237, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;a href="javascript:;" id="pcprompt-viewpc" style="background:green; border:2px solid red;"&gt;...&lt;/a&gt; is not clickable at point (791, 585). Other element would receive the click: &lt;div class="halo-pcprompt-bg" style="position: absolute; left: 0; top: 0; width: 100%; height: 100%; background: rgb(0,0,0); opacity: .8; filter:alpha(opacity=80)"&gt;&lt;/div&gt;
-  (Session info: chrome=83.0.4103.106)
-  (Driver info: chromedriver=72.0.3626.7 (efcef9a3ecda02b2132af215116a03852d08b9cb),platform=Windows NT 10.0.18363 x86_64)
-</t>
-  </si>
-  <si>
-    <t>D:\John\work\airtestLearning\webtest\exceptionpictures\2020-6-21\07-04-23-788209.png</t>
-  </si>
-  <si>
-    <t>等待3秒</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:27</t>
-  </si>
-  <si>
-    <t>点击我要参团</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[text()="我要参团"]</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\John\work\airtestLearning\webtest\testScripts\ExecuteTest.py", line 55, in executeExcel
-    returnValue = eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 73, in click
-    raise err
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 71, in click
-    getElement(driver, locationType, locatorExpression).click()
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 501, in _execute
-    return self._parent.execute(command, params)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webdriver.py", line 311, in execute
-    self.error_handler.check_response(response)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\errorhandler.py", line 237, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;div data-v-92240454="" data-ptag="138269.2.7" class="tuan_status_btns_btn primary" style="background:green; border:2px solid red;"&gt;...&lt;/div&gt; is not clickable at point (790, 539). Other element would receive the click: &lt;div class="halo-pcprompt-hint" style="position: relative; font-size: 12px; height: 40px; line-height: 40px; border-radius: 20px; box-shadow: 0 0 0 #555,0 1px 1px #555,0 0 0 #555,0 -1px 1px #282828; background-color: rgba(0,0,0,0.05); display:inline-block; padding: 0 20px; opacity: .7; filter:alpha(opacity=70)"&gt;...&lt;/div&gt;
-  (Session info: chrome=83.0.4103.106)
-  (Driver info: chromedriver=72.0.3626.7 (efcef9a3ecda02b2132af215116a03852d08b9cb),platform=Windows NT 10.0.18363 x86_64)
-</t>
-  </si>
-  <si>
-    <t>D:\John\work\airtestLearning\webtest\exceptionpictures\2020-6-21\07-04-28-380918.png</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:04:30</t>
-  </si>
-  <si>
-    <t>判断并选择点击</t>
-  </si>
-  <si>
-    <t>//*[@id="sku-pannel"]//div[@class="sku_panel__confirm"]</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:21:39</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:21:40</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:21:42</t>
-  </si>
-  <si>
     <t>//a[@class="mod_btn bg_g_jd"]</t>
   </si>
   <si>
-    <t>2020-06-19 19:21:43</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:21:46</t>
+    <t>2020-06-22 10:16:21</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:16:24</t>
   </si>
   <si>
     <t>点击选择列表</t>
@@ -307,7 +278,7 @@
     <t>//*[@id="m_common_header_jdkey"]</t>
   </si>
   <si>
-    <t>2020-06-19 19:21:48</t>
+    <t>2020-06-22 10:16:25</t>
   </si>
   <si>
     <t>点击选择我的京东</t>
@@ -316,13 +287,13 @@
     <t>//*[@id="m_common_header_shortcut_h_home"]/a</t>
   </si>
   <si>
-    <t>2020-06-19 19:21:49</t>
+    <t>2020-06-22 10:16:27</t>
   </si>
   <si>
     <t>点击蒙层直接访问</t>
   </si>
   <si>
-    <t>2020-06-19 19:21:53</t>
+    <t>2020-06-22 10:16:32</t>
   </si>
   <si>
     <t>点击待付款选项</t>
@@ -331,7 +302,7 @@
     <t>//div[@data-type='waitPay']</t>
   </si>
   <si>
-    <t>2020-06-19 19:21:56</t>
+    <t>2020-06-22 10:16:34</t>
   </si>
   <si>
     <t>getAttr</t>
@@ -343,61 +314,34 @@
     <t>data-orderid</t>
   </si>
   <si>
-    <t>2020-06-21 07:05:14</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:19</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:26</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:30</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:33</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:34</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:37</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:38</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:41</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:42</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:46</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:48</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:50</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:53</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:54</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:05:55</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:06:00</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:06:02</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:06:03</t>
+    <t>2020-06-22 15:01:54</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:01:58</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:01</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:02</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:19</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:21</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:23</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:33</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:34</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:02:37</t>
   </si>
 </sst>
 </file>
@@ -405,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -448,9 +392,6 @@
     </font>
     <font>
       <color rgb="FF008B00"/>
-    </font>
-    <font>
-      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="3">
@@ -495,7 +436,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -511,7 +452,6 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -788,10 +728,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -857,8 +797,8 @@
       <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
+      <c r="I2" s="5" t="s"/>
+      <c r="J2" s="5" t="s"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="n">
@@ -876,13 +816,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
+      <c r="I3" s="5" t="s"/>
+      <c r="J3" s="5" t="s"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="n">
@@ -898,13 +838,13 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
+      <c r="I4" s="5" t="s"/>
+      <c r="J4" s="5" t="s"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="n">
@@ -922,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
+      <c r="I5" s="5" t="s"/>
+      <c r="J5" s="5" t="s"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="n">
@@ -944,39 +884,39 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
+      <c r="I6" s="5" t="s"/>
+      <c r="J6" s="5" t="s"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
+      <c r="I7" s="5" t="s"/>
+      <c r="J7" s="5" t="s"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="n">
@@ -991,53 +931,49 @@
       <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="5" t="n"/>
+      <c r="I8" s="6" t="s"/>
+      <c r="J8" s="5" t="s"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s"/>
+      <c r="J9" s="5" t="s"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -1048,65 +984,117 @@
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
+      <c r="I10" s="5" t="s"/>
+      <c r="J10" s="5" t="s"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
+      <c r="I11" s="5" t="s"/>
+      <c r="J11" s="5" t="s"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s"/>
+      <c r="J12" s="5" t="s"/>
+    </row>
+    <row r="13" s="4" spans="1:10">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s"/>
+      <c r="J13" s="5" t="s"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="s"/>
+      <c r="J14" s="5" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1125,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1140,8 +1128,8 @@
     <col customWidth="1" max="7" min="7" style="4" width="20"/>
     <col customWidth="1" max="8" min="8" style="4" width="9"/>
     <col customWidth="1" max="9" min="9" style="4" width="32.875"/>
-    <col customWidth="1" max="14" min="10" style="4" width="9"/>
-    <col customWidth="1" max="16384" min="15" style="4" width="9"/>
+    <col customWidth="1" max="23" min="10" style="4" width="9"/>
+    <col customWidth="1" max="16384" min="24" style="4" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1192,20 +1180,20 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s"/>
-      <c r="J2" s="5" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -1213,16 +1201,16 @@
       <c r="D3" s="5" t="n"/>
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s"/>
-      <c r="J3" s="5" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="n">
@@ -1238,13 +1226,13 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s"/>
-      <c r="J4" s="5" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="5" t="n"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="n">
@@ -1259,16 +1247,16 @@
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s"/>
-      <c r="J5" s="5" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="n">
@@ -1284,13 +1272,13 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s"/>
-      <c r="J6" s="5" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="n">
@@ -1308,46 +1296,46 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s"/>
-      <c r="J7" s="5" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s"/>
-      <c r="J8" s="5" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -1358,46 +1346,46 @@
         <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s"/>
-      <c r="J9" s="5" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s"/>
-      <c r="J10" s="5" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1408,72 +1396,72 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s"/>
-      <c r="J11" s="5" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5" t="s"/>
-      <c r="J12" s="5" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s"/>
-      <c r="J13" s="5" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
@@ -1484,46 +1472,46 @@
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="s"/>
-      <c r="J14" s="5" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="s"/>
-      <c r="J15" s="5" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
@@ -1534,145 +1522,145 @@
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s"/>
-      <c r="J16" s="5" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="s"/>
-      <c r="J17" s="5" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5" t="n"/>
       <c r="G18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s"/>
-      <c r="J18" s="5" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5" t="n"/>
       <c r="G19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5" t="s"/>
-      <c r="J19" s="5" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="n"/>
       <c r="G20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="5" t="s"/>
-      <c r="J20" s="5" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="5" t="s"/>
-      <c r="J21" s="5" t="s"/>
+      <c r="H21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
